--- a/similarities/split_global/harmonic_similarity_timestamps_154.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_154.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,642 +484,666 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['A#:7', 'D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['Bb:7', 'Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+          <t>('0:01:05.780000', '0:01:19.440000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:05.440000', '0:00:14.410000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.78</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=5.44</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>jaah_22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>jaah_26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['C:min7', 'F:7', 'Bb:maj6', 'G:min7', 'C:min7', 'F:7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A:min7', 'D:7', 'G:maj6', 'E:min7', 'A:min7', 'D:7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:26.800000')]</t>
+          <t>('0:00:11.120000', '0:00:14.080000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:06.820000')]</t>
+          <t>('0:00:23.940000', '0:00:30.620000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-22#t=11.12</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=23.94</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:43.140000', '0:01:00.240000'), ('0:02:04.920000', '0:02:08.840000')]</t>
+          <t>('0:00:03.744784', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:12.560000', '0:00:19.540000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=43.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=12.56</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['E', 'B', 'E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:7', 'E', 'A', 'E']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:57.420000', '0:01:05.660000')]</t>
+          <t>('0:01:29.257527', '0:01:50.178707')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:13.384180', '0:00:22.457415')]</t>
+          <t>('0:00:11.860000', '0:00:15.240000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=57.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=89.257527</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=13.38418']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.86</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E', 'B']]</t>
+          <t>['G', 'C', 'F']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Bb', 'Eb', 'Bb']]</t>
+          <t>['E/4', 'A', 'D/5']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:57.152004', '0:01:03.328512')]</t>
+          <t>('0:00:05.776000', '0:00:09.009000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:07.043000', '0:00:10.952000')]</t>
+          <t>('0:00:06.779000', '0:00:10.553000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=57.152004']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=6.779</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'A']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:55.860352', '0:01:03.046928')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
+          <t>('0:02:18.020000', '0:02:22.340000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=55.860352']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min', 'A#:maj'], ['D#:min', 'A#:maj', 'D#:min'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:12.960000', '0:00:17.820000'), ('0:00:00.360000', '0:00:05.060000'), ('0:01:58.400000', '0:02:01.720000')]</t>
+          <t>('0:03:58.720000', '0:04:14.260000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:37.120000', '0:00:40.300000'), ('0:00:10.380000', '0:00:16.320000'), ('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:00:17.900000', '0:00:21.420000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=12.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=238.72</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=37.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=17.9</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min/G', 'G:maj'], ['C:min', 'G:maj', 'C:min'], ['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:14.360000', '0:00:19.220000'), ('0:00:01.540000', '0:00:06.680000'), ('0:02:09.380000', '0:02:14.380000')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:32.660000', '0:00:35.460000'), ('0:00:07.960000', '0:00:13.120000'), ('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:01.340000', '0:00:08.860000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=14.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=32.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=1.34</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_288</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D/2', 'D/3', 'G', 'D'], ['D/3', 'G', 'D', 'D/2']]</t>
+          <t>['G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G/3', 'G:maj', 'C:maj', 'G:maj'], ['G:maj', 'C:maj', 'G/3', 'G:maj']]</t>
+          <t>['A', 'E', 'B']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:56.753520', '0:01:13.909779'), ('0:00:57.251357', '0:01:14.388469')]</t>
+          <t>('0:01:01.020000', '0:01:08.700000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:41.649000', '0:00:47.902000'), ('0:00:39.093000', '0:00:43.498000')]</t>
+          <t>('0:00:03.071405', '0:00:13.973174')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=56.75352', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=61.02</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=41.649', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=39.093']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=3.071405</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>schubert-winterreise_176</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'F:7', 'Bb:min7']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'A:7', 'D:min7']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:17.020000')]</t>
+          <t>('0:01:34.780000', '0:01:54.140000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:48.586000', '0:01:56.506000')]</t>
+          <t>('0:00:57.860000', '0:01:03.440000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=94.78</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=108.586']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=57.86</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:15.216000', '0:00:32.669000')]</t>
+          <t>('0:00:07.284457', '0:00:20.438561')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['B', 'F#', 'B']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
+          <t>('0:00:24.838594', '0:00:43.252018')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:24.340000')]</t>
+          <t>('0:00:00.340000', '0:00:17.940000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=24.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:18', '0:00:26.460000')]</t>
+          <t>('0:00:24.180000', '0:00:30.020000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:02.440000')]</t>
+          <t>('0:00:41.580000', '0:00:43.480000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=18.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=24.18</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'F#:min']]</t>
+          <t>['D', 'B:min', 'E:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['G:maj', 'E:min', 'A:min/C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:16.759569', '0:00:31.190770')]</t>
+          <t>('0:00:22.862248', '0:00:25.887570')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:20.220000', '0:00:25.620000')]</t>
+          <t>('0:00:08.280000', '0:00:17.020000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-226#t=16.759569']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=22.862248</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=20.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=8.28</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1128,50 +1152,62 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:min/C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['D:maj/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:16.560000', '0:00:37.820000')]</t>
+          <t>('0:00:36.520000', '0:00:38.280000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:10.130000', '0:00:14.450000')]</t>
+          <t>('0:00:52.420000', '0:01:01.260000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=16.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=36.52</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=52.42</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
